--- a/Experiment One/Experiment Results.xlsx
+++ b/Experiment One/Experiment Results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau-my.sharepoint.com/personal/john_draper_griffithuni_edu_au/Documents/PhD/Experiments/agentExperiments/Experiment One/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{B3C1F30D-81F9-43C8-AC1E-47058D7EAE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A22C51AE-A324-4875-B51B-7E5D0775E6D9}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{B3C1F30D-81F9-43C8-AC1E-47058D7EAE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6C2B780-BD01-4991-8EE2-C53D4D3D0FED}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{03A8C562-6E1A-485D-933E-6DC96C1A8E2E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{03A8C562-6E1A-485D-933E-6DC96C1A8E2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test One - GPT-4o" sheetId="1" r:id="rId1"/>
     <sheet name="Test One - GPT-4o (Review)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
   <si>
     <t>Prompt</t>
   </si>
@@ -705,6 +706,1138 @@
 * Their respective **locations and relative groupings** are distinct and unambiguous.
 * The **icons associated** with each asset number appear consistent with utility asset standards (e.g., valves, pits, junctions).
 Let me know if you'd like the asset icons cross-referenced with a legend or tagged in a visual output.</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: FOUND. Result: Asset 2004859 is located on Road No. 10, near lot number 147.
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: FOUND. Result: Asset 2004858 is located near Road No. 10, adjacent to lot number 136.
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is located near the intersection of Road No. 10 and another road, within the area marked SUB. 95988.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is located on the left side of the diagram, on a road labeled 'ROAD' near plot 143, next to plot 142.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is located near the intersection of the two roads, next to asset 2004866.
+--- Individual Asset Analysis Complete ---
+Found 5 assets. Results:
+[
+  {
+    "asset_number": "2004859",
+    "location_analysis": "Asset 2004859 is located on Road No. 10, near lot number 147."
+  },
+  {
+    "asset_number": "2004858",
+    "location_analysis": "Asset 2004858 is located near Road No. 10, adjacent to lot number 136."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is located near the intersection of Road No. 10 and another road, within the area marked SUB. 95988."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is located on the left side of the diagram, on a road labeled 'ROAD' near plot 143, next to plot 142."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is located near the intersection of the two roads, next to asset 2004866."
+  }
+]
+--- Running Second Analysis on 5 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+Certainly! Here's the analysis of the provided asset numbers based on the diagram:
+1. **Asset 2004859** is located next to a square symbol with a diagonal line, which appears to represent a utility or service connection point.
+2. **Asset 2004858** is situated near a circular symbol with a dot in the center, possibly indicating a type of valve or access point.
+3. **Asset 2004865** is close to a small circle with a crosshair symbol, which might denote a survey point or marker.
+4. **Asset 2004866** is adjacent to a square with a diagonal line, similar to the symbol near asset 2004859, suggesting a utility or service connection point.
+5. **Asset 2004867** is positioned next to a circular symbol with a cross inside, which could represent a junction or access point in the network.
+Each icon or symbol next to these assets likely indicates a specific infrastructure element or connection point relevant to site planning.</t>
+  </si>
+  <si>
+    <t>6 Correct, 0 Incorrect (Did not find Fake Asset)</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: FOUND. Result: Asset 2004858 is located along the upper left road, marked by No. 10 near the top of the diagram.
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is located near plot 144, adjacent to Road No. 10, within SUB. 95988.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is along the bottom road, near plot 142.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is located at the corner of Road No. 10, near asset 405122 and asset 2004866.
+--- Individual Asset Analysis Complete ---
+Found 4 assets. Results:
+[
+  {
+    "asset_number": "2004858",
+    "location_analysis": "Asset 2004858 is located along the upper left road, marked by No. 10 near the top of the diagram."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is located near plot 144, adjacent to Road No. 10, within SUB. 95988."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is along the bottom road, near plot 142."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is located at the corner of Road No. 10, near asset 405122 and asset 2004866."
+  }
+]
+--- Running Second Analysis on 4 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+Here's the analysis of the asset numbers in the diagram:
+1. **Asset 2004858**: Located next to an icon that appears to be a circle symbol, commonly used to represent a type of infrastructure or connection point in site plans.
+2. **Asset 2004865**: Positioned next to a square icon, which might indicate a specific feature or utility structure such as a meter or a junction box.
+3. **Asset 2004866**: Situated adjacent to a circle symbol, similar to Asset 2004858, indicating a connection point or infrastructure element.
+4. **Asset 2004867**: Found near a circular icon, again suggestive of a standard connection point or infrastructure marker on the site plan.
+Each symbol typically represents a point of interest or infrastructure element in engineering site plans.</t>
+  </si>
+  <si>
+    <t>5 Correct, 1 Incorrect (Did not find Fake Asset)</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: FOUND. Result: Asset 2004859 is located in the top right section along Road No. 10, near the label '147'.
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is located in the top center area of the diagram near Road No. 10.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is located on the left side, near the intersection of two roads, inside the boundary of plot 143.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is located at the bottom left of the diagram, near the intersection of two roads.
+--- Individual Asset Analysis Complete ---
+Found 4 assets. Results:
+[
+  {
+    "asset_number": "2004859",
+    "location_analysis": "Asset 2004859 is located in the top right section along Road No. 10, near the label '147'."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is located in the top center area of the diagram near Road No. 10."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is located on the left side, near the intersection of two roads, inside the boundary of plot 143."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is located at the bottom left of the diagram, near the intersection of two roads."
+  }
+]
+--- Running Second Analysis on 4 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+Sure, here's the analysis of the asset numbers from the diagram:
+1. **Asset 2004859** is located next to a symbol that resembles a rectangular box with small arrowheads pointing to it, often indicating some kind of connection point or utility interface.
+2. **Asset 2004865** is located near a circular symbol that is typically used to signify a point of interest or a specific feature, possibly a valve or meter.
+3. **Asset 2004866** is situated adjacent to a small, circular icon with a cross inside, which usually represents an inspection point or a similar type of infrastructure element.
+4. **Asset 2004867** is positioned next to a square symbol, which often indicates a junction box or a connection node in utility diagrams.
+Each asset is situated in relation to common symbols used in engineering and site plan diagrams.</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: FOUND. Result: Asset 2004859 is located in the top-central part of the site, near Road No. 10 and adjacent to Lot 147.
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: FOUND. Result: Asset 2004858 is located at the intersection of Road No. 10 and the area labeled SUB 95988.
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is on Road No. 10, between plots 133 and 132.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is located on the outer loop of the site plan near 'SUB.95988', adjacent to plot number 143.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is located next to the intersection of two roads, near a corner inside subdivision 95988.
+--- Individual Asset Analysis Complete ---
+Found 5 assets. Results:
+[
+  {
+    "asset_number": "2004859",
+    "location_analysis": "Asset 2004859 is located in the top-central part of the site, near Road No. 10 and adjacent to Lot 147."
+  },
+  {
+    "asset_number": "2004858",
+    "location_analysis": "Asset 2004858 is located at the intersection of Road No. 10 and the area labeled SUB 95988."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is on Road No. 10, between plots 133 and 132."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is located on the outer loop of the site plan near 'SUB.95988', adjacent to plot number 143."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is located next to the intersection of two roads, near a corner inside subdivision 95988."
+  }
+]
+--- Running Second Analysis on 5 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+1. **Asset 2004859** is located next to a symbol that appears to be a square with intersecting diagonal lines, possibly representing a utility box or similar infrastructure.
+2. **Asset 2004858** is adjacent to an icon resembling a circular shape, likely indicating a manhole or access point.
+3. **Asset 2004865** is near a symbol depicted as a triangle with a horizontal line passing through it, which could signify a traffic sign or marker.
+4. **Asset 2004866** is next to a circular symbol, similar to a manhole or access cover.
+5. **Asset 2004867** is near an icon that looks like a square with diagonal intersecting lines, suggesting a utility or service box.</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: FOUND. Result: Asset 2004859 is located near No. 10 road, adjacent to plots 146 and 147.
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: FOUND. Result: Asset 2004858 is located on ROAD No. 10 near plot 138.
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is located along Road No. 10, adjacent to lot number 145.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is located on the lower left side of the diagram, along a road near plot number 143.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is located on the lower left side, near the corner on a road.
+--- Individual Asset Analysis Complete ---
+Found 5 assets. Results:
+[
+  {
+    "asset_number": "2004859",
+    "location_analysis": "Asset 2004859 is located near No. 10 road, adjacent to plots 146 and 147."
+  },
+  {
+    "asset_number": "2004858",
+    "location_analysis": "Asset 2004858 is located on ROAD No. 10 near plot 138."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is located along Road No. 10, adjacent to lot number 145."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is located on the lower left side of the diagram, along a road near plot number 143."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is located on the lower left side, near the corner on a road."
+  }
+]
+--- Running Second Analysis on 5 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+Certainly! Here's the analysis for each specified asset number based on the diagram:
+1. **Asset 2004859**:
+   - Asset 2004859 is located next to a circular symbol, which likely represents a utility connection or inspection point.
+2. **Asset 2004858**:
+   - Asset 2004858 is positioned next to a similar circular symbol, indicative of a utility-related feature on the map.
+3. **Asset 2004865**:
+   - Asset 2004865 is near a square symbol with a dot in the center, suggesting it could be a manhole or another type of utility access point.
+4. **Asset 2004866**:
+   - Asset 2004866 is adjacent to another circular symbol, consistent with utility markers used throughout the site plan.
+5. **Asset 2004867**:
+   - Asset 2004867 is also placed near a circular symbol, aligning with the utility symbols seen in other parts of the diagram.
+These icons and symbols are common in engineering diagrams to represent various utility and infrastructural elements.</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: FOUND. Result: Asset 2004858 is located near the top-left section of the site plan, next to plot number 147 and Road No. 10.
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is located next to lot 145, near a road labeled No. 10.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is located near the intersection of two roads, adjacent to properties 142 and 143.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is located on the left side, near the curve, within the area labeled as 142.
+--- Individual Asset Analysis Complete ---
+Found 4 assets. Results:
+[
+  {
+    "asset_number": "2004858",
+    "location_analysis": "Asset 2004858 is located near the top-left section of the site plan, next to plot number 147 and Road No. 10."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is located next to lot 145, near a road labeled No. 10."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is located near the intersection of two roads, adjacent to properties 142 and 143."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is located on the left side, near the curve, within the area labeled as 142."
+  }
+]
+--- Running Second Analysis on 4 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+Here is the analysis for each specified asset number from the diagram:
+1. **Asset 2004858**: Located next to a symbol of a circle containing a dot, which typically represents a utility point or a survey marker.
+2. **Asset 2004865**: Positioned near a symbol that appears to be a T-junction or a road connector, indicating an intersection or connection point in the layout.
+3. **Asset 2004866**: Found adjacent to a symbol resembling a pair of parallel lines, likely indicating a boundary or a division line between plots or sections.
+4. **Asset 2004867**: Placed close to a symbol similar to a square or rectangle with a small circle, possibly indicating a manhole or an access point.
+These descriptions are based on common symbols used in site plans for infrastructure, utilities, and road designations.</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: FOUND. Result: Asset 2004859 is located in the upper right section of the site plan, on Road No. 10, near plots 147 and 148.
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: FOUND. Result: Asset 2004858 is located on Road No. 10, near lot number 127.
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is located on the upper-right side of the diagram, adjacent to Road No. 10.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is on the left side at the bottom corner of the plot, near a road.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is located near the bottom left corner of the site plan, next to plot 142 and close to Road.
+[LOOP] Analyzing asset: 2004855...
+-&gt; STATUS: FOUND. Result: Asset 2004855 is located on Road No. 10, adjacent to lot 113.
+[LOOP] Analyzing asset: 2004856...
+-&gt; STATUS: FOUND. Result: Asset 2004856 is located on No. 10 road, between parcels 116 and 115, near the corner.
+[LOOP] Analyzing asset: 2004854...
+-&gt; STATUS: FOUND. Result: Asset 2004854 is located near the intersection of two roads in the upper part of the site plan.
+[LOOP] Analyzing asset: 2004853...
+-&gt; STATUS: FOUND. Result: Asset 2004853 is located near the top left corner of the map, along the road labeled No. 10.
+[LOOP] Analyzing asset: 9999999...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+--- Individual Asset Analysis Complete ---
+Found 9 assets. Results:
+[
+  {
+    "asset_number": "2004859",
+    "location_analysis": "Asset 2004859 is located in the upper right section of the site plan, on Road No. 10, near plots 147 and 148."
+  },
+  {
+    "asset_number": "2004858",
+    "location_analysis": "Asset 2004858 is located on Road No. 10, near lot number 127."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is located on the upper-right side of the diagram, adjacent to Road No. 10."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is on the left side at the bottom corner of the plot, near a road."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is located near the bottom left corner of the site plan, next to plot 142 and close to Road."
+  },
+  {
+    "asset_number": "2004855",
+    "location_analysis": "Asset 2004855 is located on Road No. 10, adjacent to lot 113."
+  },
+  {
+    "asset_number": "2004856",
+    "location_analysis": "Asset 2004856 is located on No. 10 road, between parcels 116 and 115, near the corner."
+  },
+  {
+    "asset_number": "2004854",
+    "location_analysis": "Asset 2004854 is located near the intersection of two roads in the upper part of the site plan."
+  },
+  {
+    "asset_number": "2004853",
+    "location_analysis": "Asset 2004853 is located near the top left corner of the map, along the road labeled No. 10."
+  }
+]
+--- Running Second Analysis on 9 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+1. **Asset 2004859** is located next to a symbol that looks like a water valve or a similar circular feature with a cross in the center.
+2. **Asset 2004858** is positioned adjacent to a T-junction pipe symbol, which indicates a branching or intersection in the pipeline network.
+3. **Asset 2004865** is situated near a circular symbol with a diagonal line through it, possibly representing a stop valve or a control point.
+4. **Asset 2004866** is close to a circular symbol with a horizontal line, indicating a specific type of connection or access point.
+5. **Asset 2004867** is next to a circular symbol with a dot in the center, which may signify a connection point or a special type of fitting.
+6. **Asset 2004855** is located next to a symbol resembling a small rectangle or square, possibly representing an electrical or communication box.
+7. **Asset 2004856** is adjacent to a circular symbol containing a plus sign, which might represent a junction or a node in the system.
+8. **Asset 2004854** is near a symbol that looks like two overlapping circles, possibly indicating a coupling or access point to a network.
+9. **Asset 2004853** is positioned next to a circular symbol with a diagonal cross, potentially depicting a valve or a shut-off point in the network.</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: FOUND. Result: Asset 2004859 is located at the top of the right loop, adjacent to lot 131.
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: FOUND. Result: Asset 2004858 is located at the top of the plan, near Road No. 10 and adjacent to plot 147.
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is located in the upper central part of the diagram, near No. 10 Road, adjacent to properties 144 and 145.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is located on a road intersection near plot 142.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is on Road No. 10, located near the intersection with another road, along the bottom left section of the site plan.
+[LOOP] Analyzing asset: 2004855...
+-&gt; STATUS: FOUND. Result: Asset 2004855 is located on Road No. 10, in front of plot 111.
+[LOOP] Analyzing asset: 2004856...
+-&gt; STATUS: FOUND. Result: Asset 2004856 is located on Road No. 10, between lots 117 and 115.
+[LOOP] Analyzing asset: 2004854...
+-&gt; STATUS: FOUND. Result: Asset 2004854 is located near the top left corner of the area, adjacent to Road No. 10.
+[LOOP] Analyzing asset: 2004853...
+-&gt; STATUS: FOUND. Result: Asset 2004853 is located at the northern section of the site, near the top of Road No. 10.
+[LOOP] Analyzing asset: 9999999...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+--- Individual Asset Analysis Complete ---
+Found 9 assets. Results:
+[
+  {
+    "asset_number": "2004859",
+    "location_analysis": "Asset 2004859 is located at the top of the right loop, adjacent to lot 131."
+  },
+  {
+    "asset_number": "2004858",
+    "location_analysis": "Asset 2004858 is located at the top of the plan, near Road No. 10 and adjacent to plot 147."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is located in the upper central part of the diagram, near No. 10 Road, adjacent to properties 144 and 145."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is located on a road intersection near plot 142."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is on Road No. 10, located near the intersection with another road, along the bottom left section of the site plan."
+  },
+  {
+    "asset_number": "2004855",
+    "location_analysis": "Asset 2004855 is located on Road No. 10, in front of plot 111."
+  },
+  {
+    "asset_number": "2004856",
+    "location_analysis": "Asset 2004856 is located on Road No. 10, between lots 117 and 115."
+  },
+  {
+    "asset_number": "2004854",
+    "location_analysis": "Asset 2004854 is located near the top left corner of the area, adjacent to Road No. 10."
+  },
+  {
+    "asset_number": "2004853",
+    "location_analysis": "Asset 2004853 is located at the northern section of the site, near the top of Road No. 10."
+  }
+]
+--- Running Second Analysis on 9 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+Sure, I can describe each asset based on the diagram provided:
+1. **Asset 2004859**: Located next to a circular symbol with a line, likely representing a utility pole or similar infrastructure.
+2. **Asset 2004858**: Positioned near a circular symbol, similar to a valve or manhole.
+3. **Asset 2004865**: Found next to a circular icon resembling a valve or access point on the path of the pipe or road.
+4. **Asset 2004866**: Adjacent to a circular symbol, which seems to represent a utility access point.
+5. **Asset 2004867**: Near a circular symbol, potentially indicating a utility connection or access point.
+6. **Asset 2004855**: Located next to a circular icon, suggesting a manhole or connection point.
+7. **Asset 2004856**: Positioned close to a circular symbol, resembling a utility access marker.
+8. **Asset 2004854**: Found near a circular icon, likely indicating an access point or utility feature.
+9. **Asset 2004853**: Adjacent to a circular symbol, similar to a manhole or valve.
+These descriptions are general interpretations of common diagram symbols.</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: FOUND. Result: Asset 2004859 is near the top corner, adjacent to Road No. 10, and near subdivision 95982.
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: FOUND. Result: Asset 2004858 is near the top center of the map, on Road No. 10.
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is located near the top left corner of the right segment of ROAD No. 10.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is located on the left side of the site plan, next to a road and labeled on lot 143.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is located near the bottom left section of the diagram, adjacent to the road and labeled as plot number 141.
+[LOOP] Analyzing asset: 2004855...
+-&gt; STATUS: FOUND. Result: Asset 2004855 is on Road No. 10, near lot 113.
+[LOOP] Analyzing asset: 2004856...
+-&gt; STATUS: FOUND. Result: Asset 2004856 is located in the central area, near plot number 117 on Road No. 10.
+[LOOP] Analyzing asset: 2004854...
+-&gt; STATUS: FOUND. Result: Asset 2004854 is located on the top right corner near Road No. 10.
+[LOOP] Analyzing asset: 2004853...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 9999999...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+--- Individual Asset Analysis Complete ---
+Found 8 assets. Results:
+[
+  {
+    "asset_number": "2004859",
+    "location_analysis": "Asset 2004859 is near the top corner, adjacent to Road No. 10, and near subdivision 95982."
+  },
+  {
+    "asset_number": "2004858",
+    "location_analysis": "Asset 2004858 is near the top center of the map, on Road No. 10."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is located near the top left corner of the right segment of ROAD No. 10."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is located on the left side of the site plan, next to a road and labeled on lot 143."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is located near the bottom left section of the diagram, adjacent to the road and labeled as plot number 141."
+  },
+  {
+    "asset_number": "2004855",
+    "location_analysis": "Asset 2004855 is on Road No. 10, near lot 113."
+  },
+  {
+    "asset_number": "2004856",
+    "location_analysis": "Asset 2004856 is located in the central area, near plot number 117 on Road No. 10."
+  },
+  {
+    "asset_number": "2004854",
+    "location_analysis": "Asset 2004854 is located on the top right corner near Road No. 10."
+  }
+]
+--- Running Second Analysis on 8 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+Sure, I'll analyze the diagram for the specified asset numbers:
+1. **Asset 2004859**: Located next to a symbol resembling a circle with a horizontal line through it, near the top left area within Lot 147.
+2. **Asset 2004858**: Positioned near a similar circle with a horizontal line symbol, situated at the boundary of Lots 146 and 145.
+3. **Asset 2004865**: Located near a circular symbol with a horizontal line, inside Lot 145, adjacent to the main road.
+4. **Asset 2004866**: Found close to a circle with a horizontal line, placed at the intersection of Lots 143 and 142.
+5. **Asset 2004867**: Positioned next to a circle with a horizontal line, near the boundary of Lots 140 and 141.
+6. **Asset 2004855**: Located beside a circle with a horizontal line, within Lot 114 on the right side of the diagram.
+7. **Asset 2004856**: Positioned near a circular symbol with a horizontal line, inside Lot 113, adjacent to the road marked No. 10.
+8. **Asset 2004854**: Found next to a circle with a horizontal line, situated near the boundary of Lots 112 and 111.</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: FOUND. Result: Asset 2004859 is located next to Road No. 10 near lot 147.
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: FOUND. Result: Asset 2004858 is located on Road No. 10 near the intersection with a curved road, adjacent to asset 114.
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is located between Sub.95988 and Road No. 10, close to lots 146 and 145.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is located on the lower left side of the diagram, next to a road and adjacent to asset 2004867.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is located near Road No. 10, adjacent to plot 141.
+[LOOP] Analyzing asset: 2004855...
+-&gt; STATUS: FOUND. Result: Asset 2004855 is located on Road No. 10, near plot number 111.
+[LOOP] Analyzing asset: 2004856...
+-&gt; STATUS: FOUND. Result: Asset 2004856 is located near No. 10, within lot 117 on the right side of the plan.
+[LOOP] Analyzing asset: 2004854...
+-&gt; STATUS: FOUND. Result: Asset 2004854 is located along Road No. 10 at the top middle area of the diagram, near plot 147.
+[LOOP] Analyzing asset: 2004853...
+-&gt; STATUS: FOUND. Result: Asset 2004853 is located near Road No. 10, between lots 118 and 119.
+[LOOP] Analyzing asset: 9999999...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+--- Individual Asset Analysis Complete ---
+Found 9 assets. Results:
+[
+  {
+    "asset_number": "2004859",
+    "location_analysis": "Asset 2004859 is located next to Road No. 10 near lot 147."
+  },
+  {
+    "asset_number": "2004858",
+    "location_analysis": "Asset 2004858 is located on Road No. 10 near the intersection with a curved road, adjacent to asset 114."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is located between Sub.95988 and Road No. 10, close to lots 146 and 145."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is located on the lower left side of the diagram, next to a road and adjacent to asset 2004867."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is located near Road No. 10, adjacent to plot 141."
+  },
+  {
+    "asset_number": "2004855",
+    "location_analysis": "Asset 2004855 is located on Road No. 10, near plot number 111."
+  },
+  {
+    "asset_number": "2004856",
+    "location_analysis": "Asset 2004856 is located near No. 10, within lot 117 on the right side of the plan."
+  },
+  {
+    "asset_number": "2004854",
+    "location_analysis": "Asset 2004854 is located along Road No. 10 at the top middle area of the diagram, near plot 147."
+  },
+  {
+    "asset_number": "2004853",
+    "location_analysis": "Asset 2004853 is located near Road No. 10, between lots 118 and 119."
+  }
+]
+--- Running Second Analysis on 9 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+Certainly! Here's the analysis for each asset number:
+1. **Asset 2004859**: Located next to a circular symbol with a dot in the center, resembling a manhole or junction point.
+2. **Asset 2004858**: Adjacent to a symbol that looks like a T-intersection, likely indicating a pipeline or conduit connection.
+3. **Asset 2004865**: Positioned near a circular symbol with a cross inside, which may signify a valve or control point.
+4. **Asset 2004866**: Close to a similar circular symbol with a cross inside, indicating another valve or control point.
+5. **Asset 2004867**: Found next to a square symbol, which could represent an electrical box or equipment housing.
+6. **Asset 2004855**: Located near a circular symbol with a dot in the center, similar to those indicating manholes or junction points.
+7. **Asset 2004856**: Positioned adjacent to a circular symbol with a cross inside, suggesting a valve or control point.
+8. **Asset 2004854**: Next to a circular symbol with a line through it, which might denote a flow direction or pressure point.
+9. **Asset 2004853**: Found adjacent to a T-intersection symbol, indicating another connection in the pipeline or conduit network.</t>
+  </si>
+  <si>
+    <t>11 Correct, 0 Incorrect (Did not find Fake Assets)</t>
+  </si>
+  <si>
+    <t>10 Correct, 1 Incorrect (Did not find Fake Assets)</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: FOUND. Result: Asset 2004859 is located on the upper right side of the diagram, positioned on Road No. 10.
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: FOUND. Result: Asset 2004858 is near the top left corner of the diagram, close to ROAD No. 10 and plot number 147.
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is located on Road No. 10, near lot 134.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is at the bottom left corner along the road, within the boundary of area 142.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is located near the bottom left of the diagram, next to Road.
+--- Individual Asset Analysis Complete ---
+Found 5 assets. Results:
+[
+  {
+    "asset_number": "2004859",
+    "location_analysis": "Asset 2004859 is located on the upper right side of the diagram, positioned on Road No. 10."
+  },
+  {
+    "asset_number": "2004858",
+    "location_analysis": "Asset 2004858 is near the top left corner of the diagram, close to ROAD No. 10 and plot number 147."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is located on Road No. 10, near lot 134."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is at the bottom left corner along the road, within the boundary of area 142."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is located near the bottom left of the diagram, next to Road."
+  }
+]
+--- Running Second Analysis on 5 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+Certainly! Here is the analysis based on the diagram provided:
+1. **Asset 2004859**:
+   - Located near two circles along a curved road section, one of which has an "X" inside, perhaps indicating a manhole or access point.
+2. **Asset 2004858**:
+   - Situated next to a circle with an "X" in the middle along the road, suggesting a similar manhole or utility access.
+3. **Asset 2004865**:
+   - Found next to a circle with two parallel lines inside near a junction, likely indicating another type of utility or access marker.
+4. **Asset 2004866**:
+   - Located next to a circle with three parallel lines along a corner section of the road, possibly representing a different utility marker.
+5. **Asset 2004867**:
+   - Positioned next to a circle with an "X" in the middle along a curved road segment, indicating another standard utility access point.
+Each asset number is associated with common utility symbols such as manholes or utility access points.</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: FOUND. Result: Asset 2004859 is located on Road No. 10, near lot 147.
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: FOUND. Result: Asset 2004858 is located at the top of the map near Road No. 10, adjacent to plot 147.
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is located near the top left section of the image adjacent to a road labeled 'No. 10'.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is located on the left side of the SUB.95988, between Road No.10 and another road, near asset 2004867.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is located on the lower left side of the diagram along the road.
+--- Individual Asset Analysis Complete ---
+Found 5 assets. Results:
+[
+  {
+    "asset_number": "2004859",
+    "location_analysis": "Asset 2004859 is located on Road No. 10, near lot 147."
+  },
+  {
+    "asset_number": "2004858",
+    "location_analysis": "Asset 2004858 is located at the top of the map near Road No. 10, adjacent to plot 147."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is located near the top left section of the image adjacent to a road labeled 'No. 10'."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is located on the left side of the SUB.95988, between Road No.10 and another road, near asset 2004867."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is located on the lower left side of the diagram along the road."
+  }
+]
+--- Running Second Analysis on 5 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+Here is the analysis for each specified asset number:
+1. **Asset 2004859** is located next to a circle with a cross inside it, representing a junction or connection point on the plan.
+2. **Asset 2004858** is adjacent to a similar circle with a cross inside it, indicating another junction or connection point.
+3. **Asset 2004865** is positioned next to a triangle symbol, which might represent a specific type of feature or measurement point.
+4. **Asset 2004866** is located close to a square with a cross through it, which could signify a distinct type of infrastructure or service feature.
+5. **Asset 2004867** is next to another circle with a cross inside it, indicating a junction or connection point within the road network.
+Each asset is associated with distinct symbols commonly used in engineering and site plans to represent various infrastructure elements.</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: FOUND. Result: Asset 2004859 is located near the top center, along Road No. 10.
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: FOUND. Result: Asset 2004858 is on Road No. 10, near the intersection with Road.
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is located near the top center of the diagram, along Road No. 10, between 145 and 146.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is located on the left side of the plan, near the intersection of two roads in the area labeled 143.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is located near the intersection of the roads labeled as No. 10 and Road, within the area marked as 142 and 143.
+--- Individual Asset Analysis Complete ---
+Found 5 assets. Results:
+[
+  {
+    "asset_number": "2004859",
+    "location_analysis": "Asset 2004859 is located near the top center, along Road No. 10."
+  },
+  {
+    "asset_number": "2004858",
+    "location_analysis": "Asset 2004858 is on Road No. 10, near the intersection with Road."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is located near the top center of the diagram, along Road No. 10, between 145 and 146."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is located on the left side of the plan, near the intersection of two roads in the area labeled 143."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is located near the intersection of the roads labeled as No. 10 and Road, within the area marked as 142 and 143."
+  }
+]
+--- Running Second Analysis on 5 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+1. **Asset 2004859** is located next to a symbol resembling a circle with a black fill, likely representing a manhole or valve.
+2. **Asset 2004858** is located next to a similar circle symbol with a black fill, indicating a manhole or valve along the roadway.
+3. **Asset 2004865** is located near a triangular symbol, possibly representing a junction or a type of connection point on the site plan.
+4. **Asset 2004866** is located next to a circular symbol with a partial black fill, similar to those representing manholes or valves on the plan.
+5. **Asset 2004867** is located near a circle with a black fill, again indicating a manhole or valve adjacent to the roadway.</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: FOUND. Result: Asset 2004859 is located near plot 136 on the left side of Road No. 10.
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: FOUND. Result: Asset 2004858 is located near Road No. 10, in the upper section of the map.
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is located on Road No. 10, adjacent to plot 133.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is on the lower left section of the site plan, next to Road No. 10.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is located along Road No.10 near SUB.95988.
+--- Individual Asset Analysis Complete ---
+Found 5 assets. Results:
+[
+  {
+    "asset_number": "2004859",
+    "location_analysis": "Asset 2004859 is located near plot 136 on the left side of Road No. 10."
+  },
+  {
+    "asset_number": "2004858",
+    "location_analysis": "Asset 2004858 is located near Road No. 10, in the upper section of the map."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is located on Road No. 10, adjacent to plot 133."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is on the lower left section of the site plan, next to Road No. 10."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is located along Road No.10 near SUB.95988."
+  }
+]
+--- Running Second Analysis on 5 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+Here's the analysis of the asset numbers:
+1. **Asset 2004859**: Located next to a circular symbol that appears to represent a utility access point, possibly a manhole or valve.
+2. **Asset 2004858**: Positioned adjacent to a triangular symbol that likely indicates a drainage or sewer connection.
+3. **Asset 2004865**: Found near a circle with a cross inside, which likely represents a survey marker or geodetic point.
+4. **Asset 2004866**: Located next to a small circular symbol that seems to indicate a point of infrastructure, such as a utility pole or pipe access.
+5. **Asset 2004867**: Situated near a square symbol with a dot in the center, possibly representing an electrical or telecoms access point.
+These symbols are typical in civil engineering and site planning diagrams to indicate various utility and infrastructure points.</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: FOUND. Result: Asset 2004859 is on Road No. 10, near the top left corner of the plan.
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: FOUND. Result: Asset 2004858 is located at the top of the site, near ROAD No. 10.
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is located on a curve of Road No. 10, adjacent to plot 146.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is located on the lower left part of the diagram on a section labeled Road, next to asset 405122.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is located near the bottom left corner, on Road No. 10, west of asset 405122.
+--- Individual Asset Analysis Complete ---
+Found 5 assets. Results:
+[
+  {
+    "asset_number": "2004859",
+    "location_analysis": "Asset 2004859 is on Road No. 10, near the top left corner of the plan."
+  },
+  {
+    "asset_number": "2004858",
+    "location_analysis": "Asset 2004858 is located at the top of the site, near ROAD No. 10."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is located on a curve of Road No. 10, adjacent to plot 146."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is located on the lower left part of the diagram on a section labeled Road, next to asset 405122."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is located near the bottom left corner, on Road No. 10, west of asset 405122."
+  }
+]
+--- Running Second Analysis on 5 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+Certainly! Here's the analysis for each asset number:
+1. **Asset 2004859**:
+   - Located next to a circular symbol, likely representing a utility or inspection point on the road near the edge of plot 145.
+2. **Asset 2004858**:
+   - Positioned next to a similar circular symbol along the road near plot 144.
+3. **Asset 2004865**:
+   - Situated adjacent to a circular symbol on the road near the intersection of plots 132 and 146.
+4. **Asset 2004866**:
+   - Found beside a circular symbol at the corner of plots 142 and 143.
+5. **Asset 2004867**:
+   - Located next to a circular symbol on the road at the edge of plot 142.
+Each of these assets seems to be positioned near a utility or inspection point marked by a circular symbol.</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: FOUND. Result: Asset 2004859 is located on the top center of the diagram, along Road No. 10.
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: FOUND. Result: Asset 2004858 is located near the top-left corner of the diagram along Road No. 10.
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is located near No. 10 Road, within the site plan boundaries.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is located near the bottom left corner of the site plan, near the ROAD label within lot 143.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is located near the corner of the road by the boundary of plot 141.
+--- Individual Asset Analysis Complete ---
+Found 5 assets. Results:
+[
+  {
+    "asset_number": "2004859",
+    "location_analysis": "Asset 2004859 is located on the top center of the diagram, along Road No. 10."
+  },
+  {
+    "asset_number": "2004858",
+    "location_analysis": "Asset 2004858 is located near the top-left corner of the diagram along Road No. 10."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is located near No. 10 Road, within the site plan boundaries."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is located near the bottom left corner of the site plan, near the ROAD label within lot 143."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is located near the corner of the road by the boundary of plot 141."
+  }
+]
+--- Running Second Analysis on 5 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+Certainly, here is the description for each asset:
+1. **Asset 2004859**: Located next to a square symbol representing a structure or building plot marked as 141.
+2. **Asset 2004858**: Positioned next to a circular symbol, often indicative of a utility such as a manhole or drain, located on a road near plot 142.
+3. **Asset 2004865**: Adjacent to a circular symbol on the road near plot 122, suggesting a utility-related feature like a manhole or drain.
+4. **Asset 2004866**: Next to a circular symbol on the road, close to plot 145, indicating a utility element.
+5. **Asset 2004867**: Situated near a circular symbol associated with utilities, located next to plot 143 on the road.</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: FOUND. Result: Asset 2004859 is on the top left corner, near a road labeled No. 10.
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: FOUND. Result: Asset 2004858 is located near the top of the diagram, next to Road No. 11.
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is located near No. 10 road, on the left-hand side of the site plan.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is on Road No. 10, next to the intersection with another unnamed road.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is located at the bottom left corner of the site plan.
+[LOOP] Analyzing asset: 2004855...
+-&gt; STATUS: FOUND. Result: Asset 2004855 is along Road No. 10, near parcel 113.
+[LOOP] Analyzing asset: 2004856...
+-&gt; STATUS: FOUND. Result: Asset 2004856 is located on Road No. 10, next to asset 405108.
+[LOOP] Analyzing asset: 2004854...
+-&gt; STATUS: FOUND. Result: Asset 2004854 is located near the top left of the site plan near Road No. 10.
+[LOOP] Analyzing asset: 2004853...
+-&gt; STATUS: FOUND. Result: Asset 2004853 is located in the upper left area of the site plan near Road No. 10.
+[LOOP] Analyzing asset: 9999999...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+--- Individual Asset Analysis Complete ---
+Found 9 assets. Results:
+[
+  {
+    "asset_number": "2004859",
+    "location_analysis": "Asset 2004859 is on the top left corner, near a road labeled No. 10."
+  },
+  {
+    "asset_number": "2004858",
+    "location_analysis": "Asset 2004858 is located near the top of the diagram, next to Road No. 11."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is located near No. 10 road, on the left-hand side of the site plan."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is on Road No. 10, next to the intersection with another unnamed road."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is located at the bottom left corner of the site plan."
+  },
+  {
+    "asset_number": "2004855",
+    "location_analysis": "Asset 2004855 is along Road No. 10, near parcel 113."
+  },
+  {
+    "asset_number": "2004856",
+    "location_analysis": "Asset 2004856 is located on Road No. 10, next to asset 405108."
+  },
+  {
+    "asset_number": "2004854",
+    "location_analysis": "Asset 2004854 is located near the top left of the site plan near Road No. 10."
+  },
+  {
+    "asset_number": "2004853",
+    "location_analysis": "Asset 2004853 is located in the upper left area of the site plan near Road No. 10."
+  }
+]
+--- Running Second Analysis on 9 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+Here's the analysis of each asset number and the icons or symbols next to them:
+1. **Asset 2004859**: Located next to a circular symbol with an “X” across it, likely representing a connection point or utility feature.
+2. **Asset 2004858**: Positioned near a circular symbol with an “X” across it, similar to asset 2004859, indicating another connection point or utility feature.
+3. **Asset 2004865**: Adjacent to a square symbol, possibly representing a junction box or similar structure on the site plan.
+4. **Asset 2004866**: Situated next to a circular symbol with an “X” across it, denoting a connection point or utility feature, similar to 2004858.
+5. **Asset 2004867**: Found near a circular symbol with an “X” across it, indicating a connection point or utility feature similar to others.
+6. **Asset 2004855**: Next to a circular symbol with an “X” across it, suggesting a similar connection point or utility feature.
+7. **Asset 2004856**: Located next to a circular symbol with an “X” across it, indicating a connection point like the others.
+8. **Asset 2004854**: Adjacent to a circular symbol with an “X” across it, again representing a connection point or utility feature.
+9. **Asset 2004853**: Next to a circular symbol with an “X” across it, similar in nature to other nearby connection points.
+Each symbol appears to indicate a connection point or feature related to utilities or site services within the layout plan.</t>
+  </si>
+  <si>
+    <t>Start
+--- Step 0: Analyzing PDF files with Vision Model ---
+Converting PDF: diagram_v1.pdf
+Successfully converted diagram_v1.pdf to 1 image(s) at 300 DPI.
+--- Running Loop for Individual Asset Location Analysis (with JSON) ---
+[LOOP] Analyzing asset: 2139485...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+[LOOP] Analyzing asset: 2004859...
+-&gt; STATUS: FOUND. Result: Asset 2004859 is located at the top left section of the diagram, near the corner formed by Road No. 10.
+[LOOP] Analyzing asset: 2004858...
+-&gt; STATUS: FOUND. Result: Asset 2004858 is near Road No. 10, between lots 133 and 132.
+[LOOP] Analyzing asset: 2004865...
+-&gt; STATUS: FOUND. Result: Asset 2004865 is located near the corner of Road No. 10 and a curve on the top left of the site plan.
+[LOOP] Analyzing asset: 2004866...
+-&gt; STATUS: FOUND. Result: Asset 2004866 is located on the left side of the site plan along the main road intersection with another road, near plot 143.
+[LOOP] Analyzing asset: 2004867...
+-&gt; STATUS: FOUND. Result: Asset 2004867 is located in the bottom left area near the label 'ROAD'.
+[LOOP] Analyzing asset: 2004855...
+-&gt; STATUS: FOUND. Result: Asset 2004855 is located on Road No. 10, near parcel 115.
+[LOOP] Analyzing asset: 2004856...
+-&gt; STATUS: FOUND. Result: Asset 2004856 is located in lot 114 on the right side of the site plan, near Road No. 10.
+[LOOP] Analyzing asset: 2004854...
+-&gt; STATUS: FOUND. Result: Asset 2004854 is on Road No. 10, near plot 147.
+[LOOP] Analyzing asset: 2004853...
+-&gt; STATUS: FOUND. Result: Asset 2004853 is located on the upper right corner road, near Road No. 10.
+[LOOP] Analyzing asset: 9999999...
+-&gt; STATUS: NOT_FOUND (as per JSON).
+--- Individual Asset Analysis Complete ---
+Found 9 assets. Results:
+[
+  {
+    "asset_number": "2004859",
+    "location_analysis": "Asset 2004859 is located at the top left section of the diagram, near the corner formed by Road No. 10."
+  },
+  {
+    "asset_number": "2004858",
+    "location_analysis": "Asset 2004858 is near Road No. 10, between lots 133 and 132."
+  },
+  {
+    "asset_number": "2004865",
+    "location_analysis": "Asset 2004865 is located near the corner of Road No. 10 and a curve on the top left of the site plan."
+  },
+  {
+    "asset_number": "2004866",
+    "location_analysis": "Asset 2004866 is located on the left side of the site plan along the main road intersection with another road, near plot 143."
+  },
+  {
+    "asset_number": "2004867",
+    "location_analysis": "Asset 2004867 is located in the bottom left area near the label 'ROAD'."
+  },
+  {
+    "asset_number": "2004855",
+    "location_analysis": "Asset 2004855 is located on Road No. 10, near parcel 115."
+  },
+  {
+    "asset_number": "2004856",
+    "location_analysis": "Asset 2004856 is located in lot 114 on the right side of the site plan, near Road No. 10."
+  },
+  {
+    "asset_number": "2004854",
+    "location_analysis": "Asset 2004854 is on Road No. 10, near plot 147."
+  },
+  {
+    "asset_number": "2004853",
+    "location_analysis": "Asset 2004853 is located on the upper right corner road, near Road No. 10."
+  }
+]
+--- Running Second Analysis on 9 found assets ---
+--- Vision Analysis Complete ---
+Icon Analysis Result:
+Certainly! Here is the analysis of the asset numbers on the diagram:
+1. **2004859**: Located next to a rounded rectangle symbol with a diagonal line inside, positioned on the road.
+2. **2004858**: Placed next to a similar rounded rectangle symbol with a diagonal line, adjacent to the same road section.
+3. **2004865**: Found near a rounded rectangle symbol with a diagonal line, on a different curve of the road.
+4. **2004866**: Positioned next to a rounded rectangle with a diagonal line, located at an intersection area on the road.
+5. **2004867**: Found next to a rounded rectangle with a diagonal line, placed near the corner section of the road.
+6. **2004855**: Situated near a rounded rectangle with a diagonal line, located on a straight piece of the road.
+7. **2004856**: Positioned next to a rounded rectangle with a diagonal line, on the opposite side of a road curve.
+8. **2004854**: Located close to a rounded rectangle with a diagonal line, also near the curve of a road.
+9. **2004853**: Found next to a rounded rectangle with a diagonal line, close to an intersection on the road.
+Each asset is next to a symbol that indicates specific features or utilities along the road in the diagram.</t>
   </si>
 </sst>
 </file>
@@ -850,6 +1983,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1171,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3085A1E6-26ED-43D5-8C66-2047FEC3E985}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,8 +2361,12 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1240,8 +2381,12 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1256,8 +2401,12 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1272,8 +2421,12 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1288,8 +2441,12 @@
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1304,8 +2461,12 @@
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1320,8 +2481,12 @@
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1336,8 +2501,12 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1352,8 +2521,12 @@
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1361,15 +2534,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
     </row>
@@ -1386,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546C25FC-EB46-4D7C-B8F1-56222B97AA9D}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,8 +2616,12 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1455,8 +2636,12 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1471,8 +2656,12 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1480,63 +2669,83 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6"/>
     </row>
@@ -1573,6 +2782,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADD6DEE-FE76-4060-8C7D-1BAAA3657B43}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{c9f92db8-2851-4df9-9d12-fab52f5b1415}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" removed="0"/>

--- a/Experiment One/Experiment Results.xlsx
+++ b/Experiment One/Experiment Results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau-my.sharepoint.com/personal/john_draper_griffithuni_edu_au/Documents/PhD/Experiments/agentExperiments/Experiment One/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{B3C1F30D-81F9-43C8-AC1E-47058D7EAE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6C2B780-BD01-4991-8EE2-C53D4D3D0FED}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="8_{B3C1F30D-81F9-43C8-AC1E-47058D7EAE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA00CB20-B62F-426B-8EFF-E4BA4B8BDF07}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{03A8C562-6E1A-485D-933E-6DC96C1A8E2E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{03A8C562-6E1A-485D-933E-6DC96C1A8E2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test One - GPT-4o" sheetId="1" r:id="rId1"/>
-    <sheet name="Test One - GPT-4o (Review)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Two - GPT-4o (Review)" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Three - Gemini (Flash)" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Four - GPT-5" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>Prompt</t>
   </si>
@@ -1838,6 +1839,122 @@
 8. **2004854**: Located close to a rounded rectangle with a diagonal line, also near the curve of a road.
 9. **2004853**: Found next to a rounded rectangle with a diagonal line, close to an intersection on the road.
 Each asset is next to a symbol that indicates specific features or utilities along the road in the diagram.</t>
+  </si>
+  <si>
+    <t>[cite\_start]The query's goal is to find the location of a list of asset numbers on the provided **SITE PLAN - STAGE 1** diagram [cite: 13] and present the findings in a specified JSON format.
+-----
+## 🔎 Asset Analysis
+| Asset Number | Found | Location Description |
+| :---: | :---: | :--- |
+| **2139485** | false | null |
+| **2004859** | true | [cite\_start]Located along the **ROAD** boundary of lot **125** [cite: 93, 95] [cite\_start](and lots **124** and **123** [cite: 96, 98][cite\_start]) in the lower right quadrant of the diagram, adjacent to a section of **ROAD** leading toward **No.10**[cite: 94, 106]. |
+| **2004858** | true | [cite\_start]Located along the **ROAD** boundary of lot **122** [cite: 99, 101] [cite\_start](and lot **121** [cite: 101][cite\_start]), in the bottom right corner of the diagram, near the end of a section of **ROAD** labeled **No.10**[cite: 106]. |
+| **2004865** | true | [cite\_start]Located along the curved **ROAD** boundary of lot **146** [cite: 31] in the upper left quadrant of the diagram. |
+| **2004866** | true | [cite\_start]Located along the **ROAD** boundary of lot **143** [cite: 68] in the middle left quadrant of the diagram. |
+| **2004867** | true | [cite\_start]Located along the curved **ROAD** boundary of lot **142** [cite: 76] in the bottom left quadrant of the diagram. |
+-----
+## 💾 JSON Output
+```json
+{
+  "2139485": {
+    "found": false,
+    "location_description": null
+  },
+  "2004859": {
+    "found": true,
+    "location_description": "Located along the ROAD boundary of lot 125 (and lots 124 and 123) in the lower right quadrant of the diagram, adjacent to a section of ROAD leading toward No.10."
+  },
+  "2004858": {
+    "found": true,
+    "location_description": "Located along the ROAD boundary of lot 122 (and lot 121), in the bottom right corner of the diagram, near the end of a section of ROAD labeled No.10."
+  },
+  "2004865": {
+    "found": true,
+    "location_description": "Located along the curved ROAD boundary of lot 146 in the upper left quadrant of the diagram."
+  },
+  "2004866": {
+    "found": true,
+    "location_description": "Located along the ROAD boundary of lot 143 in the middle left quadrant of the diagram."
+  },
+  "2004867": {
+    "found": true,
+    "location_description": "Located along the curved ROAD boundary of lot 142 in the bottom left quadrant of the diagram."
+  }
+}
+```</t>
+  </si>
+  <si>
+    <t>The query's goal is to find the locations of specific asset numbers on the provided **SITE PLAN - STAGE 1** diagram and present the analysis in a JSON format.
+-----
+## 🔎 Asset Analysis: Status and Location
+Here is the analysis for each requested asset number:
+| Asset Number | Found | Location Description |
+| :---: | :---: | :--- |
+| **2139485** | false | null |
+| **2004859** | true | [cite\_start]Located on the road boundary between lots 125, 126, and 138, south of lot 126. [cite: 93] |
+| **2004858** | true | [cite\_start]Located on the road boundary south of lots 121 and 122. [cite: 100] |
+| **2004865** | true | [cite\_start]Located on the road boundary west of lot 146 and south of lot 147. [cite: 29] |
+| **2004866** | true | [cite\_start]Located on the road boundary west of lot 143 and east of lot 144. [cite: 68] |
+| **2004867** | true | [cite\_start]Located on the road boundary west of lot 142. [cite: 78] |
+-----
+## 💾 JSON Output
+```json
+{
+  "2139485": {
+    "found": false,
+    "location_description": null
+  },
+  "2004859": {
+    "found": true,
+    "location_description": "Located on the road boundary between lots 125, 126, and 138, south of lot 126."
+  },
+  "2004858": {
+    "found": true,
+    "location_description": "Located on the road boundary south of lots 121 and 122."
+  },
+  "2004865": {
+    "found": true,
+    "location_description": "Located on the road boundary west of lot 146 and south of lot 147."
+  },
+  "2004866": {
+    "found": true,
+    "location_description": "Located on the road boundary west of lot 143 and east of lot 144."
+  },
+  "2004867": {
+    "found": true,
+    "location_description": "Located on the road boundary west of lot 142."
+  }
+}
+```</t>
+  </si>
+  <si>
+    <t>## 🔍 Analysis Goal
+The goal is to analyze the provided site plan diagram to find the location of the following asset numbers: **2139485**, **2004859**, **2004858**, **2004865**, **2004866**, **2004867**, **2004855**, **2004856**, **2004854**, **2004853**, and **9999999**.
+-----
+## 🗺️ Asset Location Analysis
+[cite\_start]The asset numbers were searched for on the "SITE PLAN - STAGE 1" diagram[cite: 13]. [cite\_start]The diagram shows lot numbers (e.g., 101, 102), road names (e.g., ROAD No. 10), and various asset numbers[cite: 18, 25, 43, 106].
+| Asset Number | Found | Location Description |
+| :--- | :--- | :--- |
+| **2139485** | false | null |
+| **2004859** | true | [cite\_start]Located on the **ROAD** boundary between lots **125** and **126**[cite: 93, 95, 80]. |
+| **2004858** | true | [cite\_start]Located on the **ROAD No. 10** boundary near lot **121** and lot **122**[cite: 100, 106, 101, 99]. |
+| **2004865** | true | [cite\_start]Located on the **ROAD** boundary next to lot **146** and lot **147**[cite: 29, 31, 27]. |
+| **2004866** | true | [cite\_start]Located on the **ROAD** boundary next to lot **143**[cite: 68]. |
+| **2004867** | true | [cite\_start]Located on the **ROAD** boundary next to lot **142**[cite: 78]. |
+| **2004855** | true | [cite\_start]Located on the **ROAD No. 10** boundary between lots **114** and **113**[cite: 38, 39, 23, 26]. |
+| **2004856** | true | [cite\_start]Located on the **ROAD** boundary near lot **117** and lot **116**[cite: 60, 59, 54]. |
+| **2004854** | true | [cite\_start]Located on the **ROAD No. 10** boundary near lot **112**[cite: 19, 24]. |
+| **2004853** | true | [cite\_start]Located on the **ROAD No. 10** boundary between lots **133** and **132**[cite: 15, 22, 37, 18]. |
+| **9999999** | false | null |
+-----
+## 💾 JSON Output
+```json
+{
+"found": true,
+"location_description": "2004859: Located on the ROAD boundary between lots 125 and 126. 2004858: Located on the ROAD No. 10 boundary near lot 121 and lot 122. 2004865: Located on the ROAD boundary next to lot 146 and lot 147. 2004866: Located on the ROAD boundary next to lot 143. 2004867: Located on the ROAD boundary next to lot 142. 2004855: Located on the ROAD No. 10 boundary between lots 114 and 113. 2004856: Located on the ROAD boundary near lot 117 and lot 116. 2004854: Located on the ROAD No. 10 boundary near lot 112. 2004853: Located on the ROAD No. 10 boundary between lots 133 and 132. Assets 2139485 and 9999999 were not found on the diagram."
+}
+```
+Would you like me to analyze any other asset numbers on the diagram?</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +2059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1960,6 +2077,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2308,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3085A1E6-26ED-43D5-8C66-2047FEC3E985}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,15 +2444,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2563,8 +2683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546C25FC-EB46-4D7C-B8F1-56222B97AA9D}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2579,15 +2699,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2784,12 +2904,186 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADD6DEE-FE76-4060-8C7D-1BAAA3657B43}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" customWidth="1"/>
+    <col min="4" max="4" width="123.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47500D45-41F2-40D8-AE51-3D91BBC5DCBF}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" customWidth="1"/>
+    <col min="4" max="4" width="123.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
